--- a/winter2025/mkt353/mkt353_document_webBusinessDecisionMatrix.xlsx
+++ b/winter2025/mkt353/mkt353_document_webBusinessDecisionMatrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaged\Documents\byui\winter2025\mkt353\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaged\Documents\byui\winter2025\MKT353\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559F5A01-511D-4D1E-A2BD-DD8CB0E3BEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF4DB16-E02C-435B-B89F-E3ECA66A4C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2126" yWindow="2126" windowWidth="18514" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brainstorm" sheetId="4" r:id="rId1"/>
@@ -1283,7 +1283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="213">
   <si>
     <t>Business Ideas</t>
   </si>
@@ -1726,10 +1726,202 @@
     <t>Version 11</t>
   </si>
   <si>
-    <t>Climbing T-Shirts</t>
-  </si>
-  <si>
-    <t>Rock climbing, climbing t-shirts</t>
+    <t>mechanical keyboard</t>
+  </si>
+  <si>
+    <t>Guitar Accessories</t>
+  </si>
+  <si>
+    <t>Climbing Apparel Shop</t>
+  </si>
+  <si>
+    <t>climbing apparel</t>
+  </si>
+  <si>
+    <t>Climbing Gear Recommendations</t>
+  </si>
+  <si>
+    <t>best climbing gear</t>
+  </si>
+  <si>
+    <t>Climbing Blog</t>
+  </si>
+  <si>
+    <t>Climbing information</t>
+  </si>
+  <si>
+    <t>Gaming Accessory Store</t>
+  </si>
+  <si>
+    <t>gaming accessories</t>
+  </si>
+  <si>
+    <t>Climbing Gear Store</t>
+  </si>
+  <si>
+    <t>climbing gear</t>
+  </si>
+  <si>
+    <t>Desk Accessory Store</t>
+  </si>
+  <si>
+    <t>desk accessories</t>
+  </si>
+  <si>
+    <t>climbing bracelets</t>
+  </si>
+  <si>
+    <t>Guitar Blog</t>
+  </si>
+  <si>
+    <t>Handmade Climbing Bracelets</t>
+  </si>
+  <si>
+    <t>Guitar information</t>
+  </si>
+  <si>
+    <t>Guitar accessories</t>
+  </si>
+  <si>
+    <t>Guitar Affliate</t>
+  </si>
+  <si>
+    <t>buy guitar</t>
+  </si>
+  <si>
+    <t>custom phone case</t>
+  </si>
+  <si>
+    <t>Custom Phone Case Store</t>
+  </si>
+  <si>
+    <t>Tech Gadget Store</t>
+  </si>
+  <si>
+    <t>Buy tech gadgets</t>
+  </si>
+  <si>
+    <t>Trending Tech Affiliate</t>
+  </si>
+  <si>
+    <t>Tech Gadget Review Blog</t>
+  </si>
+  <si>
+    <t>tech information</t>
+  </si>
+  <si>
+    <t>Sunglasses Store</t>
+  </si>
+  <si>
+    <t>buy sunglasses</t>
+  </si>
+  <si>
+    <t>Snowboard affiliate</t>
+  </si>
+  <si>
+    <t>buy snowboards</t>
+  </si>
+  <si>
+    <t>Fitness Store</t>
+  </si>
+  <si>
+    <t>fitness products</t>
+  </si>
+  <si>
+    <t>Laptop Accessories</t>
+  </si>
+  <si>
+    <t>laptop accessories</t>
+  </si>
+  <si>
+    <t>Dorm Essentials Review Site</t>
+  </si>
+  <si>
+    <t>Dorm Essentials Affiliate</t>
+  </si>
+  <si>
+    <t>dorm essentials</t>
+  </si>
+  <si>
+    <t>cool tech gadgets</t>
+  </si>
+  <si>
+    <t>new tech gadgets</t>
+  </si>
+  <si>
+    <t>tech gadget review</t>
+  </si>
+  <si>
+    <t>desk organizer</t>
+  </si>
+  <si>
+    <t>desk mat</t>
+  </si>
+  <si>
+    <t>rock climbing</t>
+  </si>
+  <si>
+    <t>bouldering</t>
+  </si>
+  <si>
+    <t>indoor climbing</t>
+  </si>
+  <si>
+    <t>learn to play guitar</t>
+  </si>
+  <si>
+    <t>guitar tutorial</t>
+  </si>
+  <si>
+    <t>guitar review</t>
+  </si>
+  <si>
+    <t>gaming headphones</t>
+  </si>
+  <si>
+    <t>mouse pad</t>
+  </si>
+  <si>
+    <t>Desk Accessories and Gaming Accessories are the best options as far as demand and likelihood that people will buy them. This means that if I want to make money I should go with one of these options.</t>
+  </si>
+  <si>
+    <t>Tech Gadgets, Desk Accessories, and Gaming Accessories have lower competition which means it would be more likely that I would be able to make sales.</t>
+  </si>
+  <si>
+    <t>Me</t>
+  </si>
+  <si>
+    <t>Finding new products to review may be an issue, but it shouldn't be too bad</t>
+  </si>
+  <si>
+    <t>doba</t>
+  </si>
+  <si>
+    <t>Advertisers should be easy, and I climb pretty often so content should be easy</t>
+  </si>
+  <si>
+    <t>Content would be hard to make often</t>
+  </si>
+  <si>
+    <t>relationship already made, quality might be questionable, but the products look good</t>
+  </si>
+  <si>
+    <t>Aliexpress</t>
+  </si>
+  <si>
+    <t>quality is questionable, and shipping times may be long, but it seems like a relationship will be easy to make</t>
+  </si>
+  <si>
+    <t>I say the cost for the review blog is highest because I'd have to buy things to review, and pay for hosting the site but that's about the only cost. Everything else is either drop shipping with no startup cost, or affiliate with just the cost of hosting. I already have guitars and climbing gear for the guitar and climbing blogs</t>
+  </si>
+  <si>
+    <t>The stores would take less time because they would function as just the store. I may have to choose products for them but that doesn't take long. The blogs would take time because I would have to make content for them.</t>
+  </si>
+  <si>
+    <t>I am choosing to do both desk and gaming accessories as my business, because they are by far the best options, and they have the same suppliers and are simliar enough that I think selling both would be a good idea.</t>
+  </si>
+  <si>
+    <t>I weighted the criteria the way I did because the suppliers aren't very important to me because there are so many options that almost anything I would choose would have good suppliers if I looked hard enough. Start up cost is important to me, as well as time requirements because as a college student taking 17 credits who also has a girlfriend, I don't have much time or money, so the lower those are the better for me.</t>
   </si>
 </sst>
 </file>
@@ -2497,27 +2689,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.84375" customWidth="1"/>
-    <col min="2" max="2" width="26.84375" customWidth="1"/>
-    <col min="3" max="3" width="16.07421875" customWidth="1"/>
-    <col min="4" max="4" width="22.69140625" customWidth="1"/>
-    <col min="5" max="5" width="3.4609375" customWidth="1"/>
-    <col min="6" max="6" width="11.69140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.53515625" customWidth="1"/>
-    <col min="8" max="8" width="10.53515625" customWidth="1"/>
-    <col min="9" max="9" width="9.3046875" customWidth="1"/>
-    <col min="10" max="10" width="11.53515625" customWidth="1"/>
-    <col min="11" max="11" width="7.53515625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" customWidth="1"/>
+    <col min="6" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
@@ -2528,7 +2719,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
@@ -2546,7 +2737,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -2571,7 +2762,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2609,625 +2800,869 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C5" s="58" t="s">
         <v>105</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E5" s="39"/>
-      <c r="F5" s="73"/>
+      <c r="F5" s="73">
+        <v>5000</v>
+      </c>
       <c r="G5" s="40">
         <f>IF(F5:F5&gt;200,7+(3*F5/$F$25),IF(F5&gt;=30,4+(3*F5/200),4*F5/30))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="37"/>
+        <v>7.3</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="I5" s="40">
         <f>IF(H5="low",10,IF(H5="medium",7,IF(H5="-",0,4)))</f>
         <v>4</v>
       </c>
-      <c r="J5" s="39"/>
+      <c r="J5" s="39">
+        <v>8</v>
+      </c>
       <c r="K5" s="40">
         <f t="shared" ref="K5:K24" si="0">G5+I5+J5</f>
-        <v>4</v>
+        <v>19.3</v>
       </c>
       <c r="L5" s="41">
         <f>RANK(K5,$K$5:$K$24)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="37"/>
+      <c r="B6" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>152</v>
+      </c>
       <c r="E6" s="37"/>
-      <c r="F6" s="59"/>
+      <c r="F6" s="59">
+        <v>500</v>
+      </c>
       <c r="G6" s="40">
         <f t="shared" ref="G6:G24" si="1">IF(F6:F6&gt;200,7+(3*F6/$F$25),IF(F6&gt;=30,4+(3*F6/200),4*F6/30))</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="37"/>
+        <v>7.03</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="I6" s="40">
         <f t="shared" ref="I6:I24" si="2">IF(H6="low",10,IF(H6="medium",7,IF(H6="-",0,4)))</f>
         <v>4</v>
       </c>
-      <c r="J6" s="37"/>
+      <c r="J6" s="37">
+        <v>6</v>
+      </c>
       <c r="K6" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>17.03</v>
       </c>
       <c r="L6" s="44">
         <f t="shared" ref="L6:L24" si="3">RANK(K6,$K$5:$K$24)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="E7" s="37"/>
-      <c r="F7" s="59"/>
+      <c r="F7" s="59">
+        <v>50</v>
+      </c>
       <c r="G7" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="37"/>
+        <v>4.75</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>79</v>
+      </c>
       <c r="I7" s="40">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J7" s="37"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="37">
+        <v>8</v>
+      </c>
       <c r="K7" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>22.75</v>
       </c>
       <c r="L7" s="44">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="37"/>
+      <c r="B8" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>156</v>
+      </c>
       <c r="E8" s="37"/>
-      <c r="F8" s="59"/>
+      <c r="F8" s="59">
+        <v>50000</v>
+      </c>
       <c r="G8" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="37"/>
+        <v>10</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="I8" s="40">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J8" s="37"/>
+      <c r="J8" s="37">
+        <v>7</v>
+      </c>
       <c r="K8" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="L8" s="41">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="37"/>
+      <c r="B9" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>158</v>
+      </c>
       <c r="E9" s="37"/>
-      <c r="F9" s="59"/>
+      <c r="F9" s="59">
+        <v>5000</v>
+      </c>
       <c r="G9" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="37"/>
+        <v>7.3</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="I9" s="40">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J9" s="37"/>
+      <c r="J9" s="37">
+        <v>6</v>
+      </c>
       <c r="K9" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>17.3</v>
       </c>
       <c r="L9" s="44">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="37"/>
+      <c r="B10" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>160</v>
+      </c>
       <c r="E10" s="37"/>
-      <c r="F10" s="59"/>
+      <c r="F10" s="59">
+        <v>50000</v>
+      </c>
       <c r="G10" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="37"/>
+        <v>10</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="I10" s="40">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J10" s="37"/>
+      <c r="J10" s="37">
+        <v>9</v>
+      </c>
       <c r="K10" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="L10" s="44">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>182</v>
+      </c>
       <c r="E11" s="37"/>
-      <c r="F11" s="59"/>
+      <c r="F11" s="59">
+        <v>5000</v>
+      </c>
       <c r="G11" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="37"/>
+        <v>7.3</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="I11" s="40">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J11" s="37"/>
+      <c r="J11" s="37">
+        <v>9</v>
+      </c>
       <c r="K11" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>20.3</v>
       </c>
       <c r="L11" s="41">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="37"/>
+      <c r="B12" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>161</v>
+      </c>
       <c r="E12" s="37"/>
-      <c r="F12" s="59"/>
+      <c r="F12" s="59">
+        <v>500</v>
+      </c>
       <c r="G12" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="37"/>
+        <v>7.03</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="I12" s="40">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J12" s="37"/>
+      <c r="J12" s="37">
+        <v>6</v>
+      </c>
       <c r="K12" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>17.03</v>
       </c>
       <c r="L12" s="44">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="37"/>
+      <c r="B13" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>164</v>
+      </c>
       <c r="E13" s="37"/>
-      <c r="F13" s="59"/>
+      <c r="F13" s="59">
+        <v>50</v>
+      </c>
       <c r="G13" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="37"/>
+        <v>4.75</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>79</v>
+      </c>
       <c r="I13" s="40">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J13" s="37"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="37">
+        <v>7</v>
+      </c>
       <c r="K13" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>21.75</v>
       </c>
       <c r="L13" s="44">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="37"/>
+      <c r="B14" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>165</v>
+      </c>
       <c r="E14" s="37"/>
-      <c r="F14" s="59"/>
+      <c r="F14" s="59">
+        <v>5000</v>
+      </c>
       <c r="G14" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="37"/>
+        <v>7.3</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="I14" s="40">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J14" s="37"/>
+      <c r="J14" s="37">
+        <v>8</v>
+      </c>
       <c r="K14" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>19.3</v>
       </c>
       <c r="L14" s="44">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="37"/>
+      <c r="B15" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>167</v>
+      </c>
       <c r="E15" s="37"/>
-      <c r="F15" s="59"/>
+      <c r="F15" s="59">
+        <v>5000</v>
+      </c>
       <c r="G15" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="37"/>
+        <v>7.3</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="I15" s="40">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J15" s="37"/>
+      <c r="J15" s="37">
+        <v>8</v>
+      </c>
       <c r="K15" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>19.3</v>
       </c>
       <c r="L15" s="44">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="37"/>
+      <c r="B16" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>168</v>
+      </c>
       <c r="E16" s="37"/>
-      <c r="F16" s="59"/>
+      <c r="F16" s="59">
+        <v>50000</v>
+      </c>
       <c r="G16" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="37"/>
+        <v>10</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="I16" s="40">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J16" s="37"/>
+      <c r="J16" s="37">
+        <v>6</v>
+      </c>
       <c r="K16" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L16" s="44">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="37"/>
+      <c r="B17" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>171</v>
+      </c>
       <c r="E17" s="37"/>
-      <c r="F17" s="59"/>
+      <c r="F17" s="59">
+        <v>50</v>
+      </c>
       <c r="G17" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="37"/>
+        <v>4.75</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="I17" s="40">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J17" s="37"/>
+      <c r="J17" s="37">
+        <v>8</v>
+      </c>
       <c r="K17" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>16.75</v>
       </c>
       <c r="L17" s="41">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="37"/>
+      <c r="B18" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>171</v>
+      </c>
       <c r="E18" s="37"/>
-      <c r="F18" s="59"/>
+      <c r="F18" s="59">
+        <v>50</v>
+      </c>
       <c r="G18" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="37"/>
+        <v>4.75</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="I18" s="40">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J18" s="37"/>
+      <c r="J18" s="37">
+        <v>7</v>
+      </c>
       <c r="K18" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>15.75</v>
       </c>
       <c r="L18" s="44">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="37"/>
+      <c r="B19" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>174</v>
+      </c>
       <c r="E19" s="37"/>
-      <c r="F19" s="59"/>
+      <c r="F19" s="59">
+        <v>50000</v>
+      </c>
       <c r="G19" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="37"/>
+        <v>10</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>79</v>
+      </c>
       <c r="I19" s="40">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J19" s="37"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="37">
+        <v>8</v>
+      </c>
       <c r="K19" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="L19" s="44">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="37"/>
+      <c r="B20" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>185</v>
+      </c>
       <c r="E20" s="37"/>
-      <c r="F20" s="59"/>
+      <c r="F20" s="59">
+        <v>5000</v>
+      </c>
       <c r="G20" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="37"/>
+        <v>7.3</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="I20" s="40">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J20" s="37"/>
+      <c r="J20" s="37">
+        <v>5</v>
+      </c>
       <c r="K20" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>16.3</v>
       </c>
       <c r="L20" s="44">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="37"/>
+      <c r="B21" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>185</v>
+      </c>
       <c r="E21" s="37"/>
-      <c r="F21" s="59"/>
+      <c r="F21" s="59">
+        <v>5000</v>
+      </c>
       <c r="G21" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="37"/>
+        <v>7.3</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="I21" s="40">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J21" s="37"/>
+      <c r="J21" s="37">
+        <v>7</v>
+      </c>
       <c r="K21" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>18.3</v>
       </c>
       <c r="L21" s="44">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="37"/>
+      <c r="B22" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>176</v>
+      </c>
       <c r="E22" s="37"/>
-      <c r="F22" s="59"/>
+      <c r="F22" s="59">
+        <v>5000</v>
+      </c>
       <c r="G22" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="37"/>
+        <v>7.3</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="I22" s="40">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J22" s="37"/>
+      <c r="J22" s="37">
+        <v>9</v>
+      </c>
       <c r="K22" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>20.3</v>
       </c>
       <c r="L22" s="44">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="37"/>
+      <c r="B23" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>178</v>
+      </c>
       <c r="E23" s="37"/>
-      <c r="F23" s="59"/>
+      <c r="F23" s="59">
+        <v>500</v>
+      </c>
       <c r="G23" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="37"/>
+        <v>7.03</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="I23" s="40">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J23" s="37"/>
+      <c r="J23" s="37">
+        <v>6</v>
+      </c>
       <c r="K23" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>17.03</v>
       </c>
       <c r="L23" s="41">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="46"/>
+      <c r="B24" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>180</v>
+      </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="60"/>
+      <c r="F24" s="60">
+        <v>500</v>
+      </c>
       <c r="G24" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="37"/>
+        <v>7.03</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="I24" s="40">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J24" s="46"/>
+      <c r="J24" s="46">
+        <v>7</v>
+      </c>
       <c r="K24" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>18.03</v>
       </c>
       <c r="L24" s="47">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.9" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
         <v>102</v>
       </c>
       <c r="F25">
         <f>MAX(F5:F24)</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I25">
         <f>MAX(I5:I24)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="42"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="42" t="s">
+        <v>173</v>
+      </c>
       <c r="D26" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B27" s="42"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B28" s="42"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B29" s="42"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B30" s="42"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="37" t="s">
         <v>72</v>
       </c>
@@ -3260,7 +3695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="37" t="s">
         <v>73</v>
       </c>
@@ -3293,7 +3728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="37" t="s">
         <v>74</v>
       </c>
@@ -3326,7 +3761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="37" t="s">
         <v>75</v>
       </c>
@@ -3361,7 +3796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="37" t="s">
         <v>76</v>
       </c>
@@ -3396,18 +3831,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F39">
         <f>MAX(F34:F38)</f>
         <v>480</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>22</v>
       </c>
@@ -3415,7 +3850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>9</v>
       </c>
@@ -3423,7 +3858,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>12</v>
       </c>
@@ -3431,7 +3866,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>8</v>
       </c>
@@ -3439,7 +3874,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>13</v>
       </c>
@@ -3447,37 +3882,37 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>14</v>
       </c>
@@ -3679,9 +4114,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3691,20 +4126,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3046875" customWidth="1"/>
-    <col min="4" max="4" width="11.53515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>141</v>
       </c>
@@ -3712,27 +4147,27 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -3743,24 +4178,24 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>93</v>
       </c>
       <c r="B7" s="49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>94</v>
       </c>
       <c r="B8" s="49">
         <f>B6+B7</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -3769,22 +4204,22 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="68">
         <f>B8/B9</f>
-        <v>2.9761904761904763</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+        <v>0.59523809523809523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>113</v>
       </c>
       <c r="B11" s="49">
         <f>B10*30</f>
-        <v>89.285714285714292</v>
+        <v>17.857142857142858</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>109</v>
@@ -3793,7 +4228,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="74" t="s">
         <v>26</v>
       </c>
@@ -3806,7 +4241,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -3832,61 +4267,79 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="str">
         <f>Brainstorm!B26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="7"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="62"/>
+        <v>Tech Gadget Review Blog</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="63">
+        <v>1.9</v>
+      </c>
+      <c r="C15" s="63">
+        <v>19</v>
+      </c>
+      <c r="D15" s="62">
+        <v>4.3</v>
+      </c>
       <c r="E15" s="50">
         <f>IF(C15=0,0,B15/C15)</f>
-        <v>0</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="F15" s="49">
         <f>IF(B15=0,0,D15/B15)</f>
-        <v>0</v>
+        <v>2.263157894736842</v>
       </c>
       <c r="H15" s="67">
         <f>IF($D$18&lt;$B$11,B15,$B$11/$D$18*B15)</f>
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="J15" s="48"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="7"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="B16" s="63">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C16" s="63">
-        <v>1000</v>
+        <v>49</v>
       </c>
       <c r="D16" s="62">
-        <v>25</v>
+        <v>8.68</v>
       </c>
       <c r="E16" s="50">
         <f>IF(C16=0,0,B16/C16)</f>
-        <v>1.2E-2</v>
+        <v>8.1632653061224483E-2</v>
       </c>
       <c r="F16" s="49">
         <f t="shared" ref="F16:F17" si="0">IF(B16=0,0,D16/B16)</f>
-        <v>2.0833333333333335</v>
+        <v>2.17</v>
       </c>
       <c r="H16" s="67">
         <f t="shared" ref="H16:H18" si="1">IF($D$18&lt;$B$11,B16,$B$11/$D$18*B16)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J16" s="48"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="62"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="63">
+        <v>0</v>
+      </c>
+      <c r="C17" s="63">
+        <v>0</v>
+      </c>
+      <c r="D17" s="62">
+        <v>0</v>
+      </c>
       <c r="E17" s="50">
         <f>IF(C17=0,0,B17/C17)</f>
         <v>0</v>
@@ -3901,283 +4354,355 @@
       </c>
       <c r="J17" s="48"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>90</v>
       </c>
       <c r="B18" s="64">
         <f>SUM(B15:B17)</f>
-        <v>12</v>
+        <v>5.9</v>
       </c>
       <c r="C18" s="64">
         <f>SUM(C15:C17)</f>
-        <v>1000</v>
+        <v>68</v>
       </c>
       <c r="D18" s="66">
         <f>SUM(D15:D17)</f>
-        <v>25</v>
+        <v>12.98</v>
       </c>
       <c r="E18" s="50">
         <f>IF(C18=0,0,B18/C18)</f>
-        <v>1.2E-2</v>
+        <v>8.6764705882352952E-2</v>
       </c>
       <c r="F18" s="49">
         <f>IF(B18=0,0,D18/B18)</f>
-        <v>2.0833333333333335</v>
+        <v>2.1999999999999997</v>
       </c>
       <c r="H18" s="67">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>5.9</v>
       </c>
       <c r="I18" s="49">
         <f>H18*F18</f>
-        <v>25</v>
+        <v>12.979999999999999</v>
       </c>
       <c r="J18" s="22"/>
       <c r="K18" s="69"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" s="10">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="str">
         <f>Brainstorm!B27</f>
-        <v>0</v>
+        <v>Desk Accessory Store</v>
       </c>
       <c r="B19" s="65"/>
       <c r="C19" s="65"/>
       <c r="H19" s="65"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A20" s="7"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="62"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="63">
+        <v>97</v>
+      </c>
+      <c r="C20" s="63">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="62">
+        <v>31</v>
+      </c>
       <c r="E20" s="50">
         <f>IF(C20=0,0,B20/C20)</f>
-        <v>0</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="F20" s="49">
         <f t="shared" ref="F20:F38" si="2">IF(B20=0,0,D20/B20)</f>
-        <v>0</v>
+        <v>0.31958762886597936</v>
       </c>
       <c r="H20" s="67">
         <f t="shared" ref="H20:H22" si="3">IF($D$23&lt;$B$11,B20,$B$11/$D$23*B20)</f>
-        <v>0</v>
+        <v>18.625192012288785</v>
       </c>
       <c r="J20" s="48"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" s="7"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="62"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="63">
+        <v>36</v>
+      </c>
+      <c r="C21" s="63">
+        <v>494</v>
+      </c>
+      <c r="D21" s="62">
+        <v>31</v>
+      </c>
       <c r="E21" s="50">
         <f>IF(C21=0,0,B21/C21)</f>
-        <v>0</v>
+        <v>7.28744939271255E-2</v>
       </c>
       <c r="F21" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="H21" s="67">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.9124423963133639</v>
       </c>
       <c r="J21" s="48"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="62"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="63">
+        <v>22</v>
+      </c>
+      <c r="C22" s="63">
+        <v>377</v>
+      </c>
+      <c r="D22" s="62">
+        <v>31</v>
+      </c>
       <c r="E22" s="50">
         <f>IF(C22=0,0,B22/C22)</f>
-        <v>0</v>
+        <v>5.8355437665782495E-2</v>
       </c>
       <c r="F22" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.4090909090909092</v>
       </c>
       <c r="H22" s="67">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.2242703533026109</v>
       </c>
       <c r="J22" s="48"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="64">
         <f>SUM(B20:B22)</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="C23" s="64">
         <f>SUM(C20:C22)</f>
-        <v>0</v>
+        <v>1871</v>
       </c>
       <c r="D23" s="66">
         <f>SUM(D20:D22)</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="E23" s="50">
         <f>IF(C23=0,0,B23/C23)</f>
-        <v>0</v>
+        <v>8.2843399251737032E-2</v>
       </c>
       <c r="F23" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H23" s="67">
         <f>IF($D$23&lt;$B$11,B23,$B$11/$D$23*B23)</f>
-        <v>0</v>
+        <v>29.761904761904759</v>
       </c>
       <c r="I23" s="49">
         <f>H23*F23</f>
-        <v>0</v>
+        <v>17.857142857142854</v>
       </c>
       <c r="J23" s="48"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A24" s="10">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="str">
         <f>Brainstorm!B28</f>
-        <v>0</v>
+        <v>Climbing Blog</v>
       </c>
       <c r="H24" s="65"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" s="7"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="62"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="63">
+        <v>18</v>
+      </c>
+      <c r="C25" s="63">
+        <v>475</v>
+      </c>
+      <c r="D25" s="62">
+        <v>31</v>
+      </c>
       <c r="E25" s="50">
         <f>IF(C25=0,0,B25/C25)</f>
-        <v>0</v>
+        <v>3.7894736842105266E-2</v>
       </c>
       <c r="F25" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.7222222222222223</v>
       </c>
       <c r="H25" s="67">
         <f t="shared" ref="H25:H27" si="4">IF($D$28&lt;$B$11,B25,$B$11/$D$28*B25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A26" s="7"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="62"/>
+        <v>5.4590450310559007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" s="63">
+        <v>3</v>
+      </c>
+      <c r="C26" s="63">
+        <v>65</v>
+      </c>
+      <c r="D26" s="62">
+        <v>19</v>
+      </c>
       <c r="E26" s="50">
         <f>IF(C26=0,0,B26/C26)</f>
-        <v>0</v>
+        <v>4.6153846153846156E-2</v>
       </c>
       <c r="F26" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="H26" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A27" s="7"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="62"/>
+        <v>0.90984083850931685</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="63">
+        <v>2</v>
+      </c>
+      <c r="C27" s="63">
+        <v>46</v>
+      </c>
+      <c r="D27" s="62">
+        <v>8.8800000000000008</v>
+      </c>
       <c r="E27" s="50">
         <f>IF(C27=0,0,B27/C27)</f>
-        <v>0</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="F27" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="H27" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+        <v>0.6065605590062112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>68</v>
       </c>
       <c r="B28" s="64">
         <f>SUM(B25:B27)</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C28" s="23">
         <f>SUM(C25:C27)</f>
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="D28" s="66">
         <f>SUM(D25:D27)</f>
-        <v>0</v>
+        <v>58.88</v>
       </c>
       <c r="E28" s="50">
         <f>IF(C28=0,0,B28/C28)</f>
-        <v>0</v>
+        <v>3.9249146757679182E-2</v>
       </c>
       <c r="F28" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="H28" s="67">
         <f>IF($D$28&lt;$B$11,B28,$B$11/$D$28*B28)</f>
-        <v>0</v>
+        <v>6.9754464285714288</v>
       </c>
       <c r="I28" s="49">
         <f>H28*F28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A29" s="10">
+        <v>17.857142857142858</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="str">
         <f>Brainstorm!B29</f>
-        <v>0</v>
+        <v>Guitar Blog</v>
       </c>
       <c r="H29" s="65"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A30" s="7"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="62"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="63">
+        <v>16</v>
+      </c>
+      <c r="C30" s="63">
+        <v>498</v>
+      </c>
+      <c r="D30" s="62">
+        <v>31</v>
+      </c>
       <c r="E30" s="50">
         <f>IF(C30=0,0,B30/C30)</f>
-        <v>0</v>
+        <v>3.2128514056224897E-2</v>
       </c>
       <c r="F30" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.9375</v>
       </c>
       <c r="H30" s="67">
         <f t="shared" ref="H30:H32" si="5">IF($D$33&lt;$B$11,B30,$B$11/$D$33*B30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A31" s="7"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="62"/>
+        <v>4.6082949308755765</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="63">
+        <v>8</v>
+      </c>
+      <c r="C31" s="63">
+        <v>145</v>
+      </c>
+      <c r="D31" s="62">
+        <v>31</v>
+      </c>
       <c r="E31" s="50">
         <f>IF(C31=0,0,B31/C31)</f>
-        <v>0</v>
+        <v>5.5172413793103448E-2</v>
       </c>
       <c r="F31" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.875</v>
       </c>
       <c r="H31" s="67">
         <f t="shared" si="5"/>
+        <v>2.3041474654377883</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="63">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A32" s="7"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="62"/>
+      <c r="C32" s="63">
+        <v>0</v>
+      </c>
+      <c r="D32" s="62">
+        <v>0</v>
+      </c>
       <c r="E32" s="50">
         <f>IF(C32=0,0,B32/C32)</f>
         <v>0</v>
@@ -4191,139 +4716,163 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="64">
         <f>SUM(B30:B32)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C33" s="23">
         <f>SUM(C30:C32)</f>
-        <v>0</v>
+        <v>643</v>
       </c>
       <c r="D33" s="66">
         <f>SUM(D30:D32)</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E33" s="50">
         <f>IF(C33=0,0,B33/C33)</f>
-        <v>0</v>
+        <v>3.7325038880248837E-2</v>
       </c>
       <c r="F33" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.5833333333333335</v>
       </c>
       <c r="H33" s="67">
         <f>IF($D$33&lt;$B$11,B33,$B$11/$D$33*B33)</f>
-        <v>0</v>
+        <v>6.9124423963133648</v>
       </c>
       <c r="I33" s="49">
         <f>H33*F33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="10">
+        <v>17.857142857142861</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="str">
         <f>Brainstorm!B30</f>
-        <v>0</v>
+        <v>Gaming Accessory Store</v>
       </c>
       <c r="H34" s="65"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="7"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="62"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="63">
+        <v>40</v>
+      </c>
+      <c r="C35" s="63">
+        <v>578</v>
+      </c>
+      <c r="D35" s="62">
+        <v>31</v>
+      </c>
       <c r="E35" s="50">
         <f>IF(C35=0,0,B35/C35)</f>
-        <v>0</v>
+        <v>6.9204152249134954E-2</v>
       </c>
       <c r="F35" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="H35" s="67">
         <f t="shared" ref="H35:H37" si="6">IF($D$38&lt;$B$11,B35,$B$11/$D$38*B35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" s="7"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="62"/>
+        <v>7.7639751552795033</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B36" s="63">
+        <v>19</v>
+      </c>
+      <c r="C36" s="63">
+        <v>278</v>
+      </c>
+      <c r="D36" s="62">
+        <v>30</v>
+      </c>
       <c r="E36" s="50">
         <f>IF(C36=0,0,B36/C36)</f>
-        <v>0</v>
+        <v>6.83453237410072E-2</v>
       </c>
       <c r="F36" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5789473684210527</v>
       </c>
       <c r="H36" s="67">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="7"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="62"/>
+        <v>3.6878881987577641</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37" s="63">
+        <v>44</v>
+      </c>
+      <c r="C37" s="63">
+        <v>642</v>
+      </c>
+      <c r="D37" s="62">
+        <v>31</v>
+      </c>
       <c r="E37" s="50">
         <f>IF(C37=0,0,B37/C37)</f>
-        <v>0</v>
+        <v>6.8535825545171333E-2</v>
       </c>
       <c r="F37" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.70454545454545459</v>
       </c>
       <c r="H37" s="67">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+        <v>8.5403726708074537</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>68</v>
       </c>
       <c r="B38" s="23">
         <f>SUM(B35:B37)</f>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="C38" s="23">
         <f>SUM(C35:C37)</f>
-        <v>0</v>
+        <v>1498</v>
       </c>
       <c r="D38" s="66">
         <f>SUM(D35:D37)</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E38" s="50">
         <f>IF(C38=0,0,B38/C38)</f>
-        <v>0</v>
+        <v>6.8758344459279044E-2</v>
       </c>
       <c r="F38" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.89320388349514568</v>
       </c>
       <c r="H38" s="67">
         <f>IF($D$38&lt;$B$11,B38,$B$11/$D$38*B38)</f>
-        <v>0</v>
+        <v>19.992236024844722</v>
       </c>
       <c r="I38" s="49">
         <f>H38*F38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+        <v>17.857142857142858</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -4347,19 +4896,19 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.3046875" customWidth="1"/>
-    <col min="3" max="3" width="13.07421875" customWidth="1"/>
-    <col min="4" max="4" width="15.69140625" customWidth="1"/>
-    <col min="5" max="5" width="7.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
@@ -4369,7 +4918,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C2" s="8" t="s">
         <v>54</v>
       </c>
@@ -4377,7 +4926,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
@@ -4391,129 +4940,131 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B4" s="10">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="str">
         <f>INPUTS!A14</f>
-        <v>0</v>
+        <v>Tech Gadget Review Blog</v>
       </c>
       <c r="C4" s="70">
         <f>INPUTS!B18</f>
-        <v>12</v>
+        <v>5.9</v>
       </c>
       <c r="D4" s="70">
         <f>INPUTS!H18</f>
-        <v>12</v>
+        <v>5.9</v>
       </c>
       <c r="E4" s="33">
         <f>IFERROR((D4-$D$10)/($D$9-$D$10)*9+1,"")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="str">
         <f>INPUTS!A19</f>
-        <v>0</v>
+        <v>Desk Accessory Store</v>
       </c>
       <c r="C5" s="70">
         <f>INPUTS!B23</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="D5" s="70">
         <f>INPUTS!H23</f>
-        <v>0</v>
+        <v>29.761904761904759</v>
       </c>
       <c r="E5" s="33">
         <f t="shared" ref="E5:E8" si="0">IFERROR((D5-$D$10)/($D$9-$D$10)*9+1,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="str">
         <f>INPUTS!A24</f>
-        <v>0</v>
+        <v>Climbing Blog</v>
       </c>
       <c r="C6" s="70">
         <f>INPUTS!B28</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D6" s="70">
         <f>INPUTS!H28</f>
-        <v>0</v>
+        <v>6.9754464285714288</v>
       </c>
       <c r="E6" s="33">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="10">
+        <v>1.4056263719816404</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="str">
         <f>INPUTS!A29</f>
-        <v>0</v>
+        <v>Guitar Blog</v>
       </c>
       <c r="C7" s="70">
         <f>INPUTS!B33</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D7" s="70">
         <f>INPUTS!H33</f>
-        <v>0</v>
+        <v>6.9124423963133648</v>
       </c>
       <c r="E7" s="33">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="10">
+        <v>1.3818631269272119</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="str">
         <f>INPUTS!A34</f>
-        <v>0</v>
+        <v>Gaming Accessory Store</v>
       </c>
       <c r="C8" s="70">
         <f>INPUTS!B38</f>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D8" s="70">
         <f>INPUTS!H38</f>
-        <v>0</v>
+        <v>19.992236024844722</v>
       </c>
       <c r="E8" s="33">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+        <v>6.315171839344746</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="71">
         <f>MAX(C4,C5,C6,C7,C8)</f>
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="D9" s="71">
         <f>MAX(D4,D5,D6,D7,D8)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+        <v>29.761904761904759</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="71">
         <f>MIN(C4,C5,C6,C7,C8)</f>
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="D10" s="71">
         <f>MIN(D4,D5,D6,D7,D8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="75"/>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="75" t="s">
+        <v>199</v>
+      </c>
       <c r="C14" s="75"/>
       <c r="D14" s="75"/>
       <c r="E14" s="75"/>
@@ -4521,7 +5072,7 @@
       <c r="G14" s="75"/>
       <c r="H14" s="75"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="75"/>
       <c r="C15" s="75"/>
       <c r="D15" s="75"/>
@@ -4530,7 +5081,7 @@
       <c r="G15" s="75"/>
       <c r="H15" s="75"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
       <c r="D16" s="75"/>
@@ -4561,32 +5112,32 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.07421875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.07421875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="54"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
       <c r="B2" s="53"/>
       <c r="C2" s="54"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>24</v>
       </c>
@@ -4597,110 +5148,112 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="55">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="str">
         <f>INPUTS!A14</f>
-        <v>0</v>
+        <v>Tech Gadget Review Blog</v>
       </c>
       <c r="B4" s="56">
         <f>INPUTS!E18</f>
-        <v>1.2E-2</v>
+        <v>8.6764705882352952E-2</v>
       </c>
       <c r="C4" s="57">
         <f>IFERROR((B4-$B$10)/($B$9-$B$10)*9+1,"")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="55">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="55" t="str">
         <f>INPUTS!A19</f>
-        <v>0</v>
+        <v>Desk Accessory Store</v>
       </c>
       <c r="B5" s="56">
         <f>INPUTS!E23</f>
-        <v>0</v>
+        <v>8.2843399251737032E-2</v>
       </c>
       <c r="C5" s="57">
         <f t="shared" ref="C5:C8" si="0">IFERROR((B5-$B$10)/($B$9-$B$10)*9+1,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="55">
+        <v>9.2861651015157261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="str">
         <f>INPUTS!A24</f>
-        <v>0</v>
+        <v>Climbing Blog</v>
       </c>
       <c r="B6" s="56">
         <f>INPUTS!E28</f>
-        <v>0</v>
+        <v>3.9249146757679182E-2</v>
       </c>
       <c r="C6" s="57">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="55">
+        <v>1.3502647154993197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="str">
         <f>INPUTS!A29</f>
-        <v>0</v>
+        <v>Guitar Blog</v>
       </c>
       <c r="B7" s="56">
         <f>INPUTS!E33</f>
-        <v>0</v>
+        <v>3.7325038880248837E-2</v>
       </c>
       <c r="C7" s="57">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="55">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="str">
         <f>INPUTS!A34</f>
-        <v>0</v>
+        <v>Gaming Accessory Store</v>
       </c>
       <c r="B8" s="56">
         <f>INPUTS!E38</f>
-        <v>0</v>
+        <v>6.8758344459279044E-2</v>
       </c>
       <c r="C8" s="57">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+        <v>6.7221208670202381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="72">
         <f>MAX(B4,B5,B6,B7,B8)</f>
-        <v>1.2E-2</v>
+        <v>8.6764705882352952E-2</v>
       </c>
       <c r="C9" s="54"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="72">
         <f>MIN(B4,B5,B6,B7,B8)</f>
-        <v>0</v>
+        <v>3.7325038880248837E-2</v>
       </c>
       <c r="C10" s="54"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="75"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="75" t="s">
+        <v>200</v>
+      </c>
       <c r="B14" s="75"/>
       <c r="C14" s="75"/>
       <c r="D14" s="75"/>
       <c r="E14" s="75"/>
       <c r="F14" s="75"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
       <c r="B15" s="75"/>
       <c r="C15" s="75"/>
@@ -4708,7 +5261,7 @@
       <c r="E15" s="75"/>
       <c r="F15" s="75"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="75"/>
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
@@ -4716,7 +5269,7 @@
       <c r="E16" s="75"/>
       <c r="F16" s="75"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -4737,22 +5290,22 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.84375" customWidth="1"/>
-    <col min="2" max="2" width="30.3046875" customWidth="1"/>
-    <col min="3" max="3" width="12.07421875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.69140625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.7109375" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.69140625" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
@@ -4763,7 +5316,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2" s="8" t="s">
         <v>31</v>
       </c>
@@ -4771,7 +5324,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="8" t="s">
         <v>30</v>
       </c>
@@ -4787,10 +5340,10 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="10">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="str">
         <f>'Recom.'!A4</f>
-        <v>0</v>
+        <v>Tech Gadget Review Blog</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>119</v>
@@ -4802,13 +5355,19 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="35"/>
+      <c r="B5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="7">
+        <v>8</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>202</v>
+      </c>
       <c r="G5" t="s">
         <v>9</v>
       </c>
@@ -4819,7 +5378,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4836,18 +5395,18 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="23">
         <f>IF(SUM(C5:C6)=0,0,SUM(C5:C6)/COUNTIF(C5:C6,"&gt;0"))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D7" s="36"/>
-      <c r="E7" s="34" t="str">
+      <c r="E7" s="34">
         <f>IFERROR((C7-$C$25)/($C$24-$C$25)*9+1,"")</f>
-        <v/>
+        <v>6.3999999999999995</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -4859,10 +5418,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="10">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="str">
         <f>'Recom.'!A5</f>
-        <v>0</v>
+        <v>Desk Accessory Store</v>
       </c>
       <c r="D8" s="36"/>
       <c r="G8" t="s">
@@ -4875,13 +5434,19 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="35"/>
+      <c r="B9" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="7">
+        <v>8</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>206</v>
+      </c>
       <c r="G9" t="s">
         <v>125</v>
       </c>
@@ -4892,13 +5457,19 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="35"/>
+      <c r="B10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>208</v>
+      </c>
       <c r="G10" t="s">
         <v>104</v>
       </c>
@@ -4909,18 +5480,18 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="23">
         <f>IF(SUM(C9:C10)=0,0,SUM(C9:C10)/COUNTIF(C9:C10,"&gt;0"))</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="D11" s="36"/>
-      <c r="E11" s="34" t="str">
+      <c r="E11" s="34">
         <f>IFERROR((C11-$C$25)/($C$24-$C$25)*9+1,"")</f>
-        <v/>
+        <v>3.6999999999999997</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -4932,10 +5503,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="10">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="str">
         <f>'Recom.'!A6</f>
-        <v>0</v>
+        <v>Climbing Blog</v>
       </c>
       <c r="D12" s="36"/>
       <c r="G12" t="s">
@@ -4948,13 +5519,19 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="35"/>
+      <c r="B13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="7">
+        <v>10</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>204</v>
+      </c>
       <c r="G13" t="s">
         <v>103</v>
       </c>
@@ -4965,7 +5542,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -4982,36 +5559,42 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="23">
         <f>IF(SUM(C13:C14)=0,0,SUM(C13:C14)/COUNTIF(C13:C14,"&gt;0"))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D15" s="36"/>
-      <c r="E15" s="34" t="str">
+      <c r="E15" s="34">
         <f>IFERROR((C15-$C$25)/($C$24-$C$25)*9+1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="str">
         <f>'Recom.'!A7</f>
-        <v>0</v>
+        <v>Guitar Blog</v>
       </c>
       <c r="D16" s="36"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="35"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -5019,93 +5602,105 @@
       <c r="C18" s="7"/>
       <c r="D18" s="35"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="23">
         <f>IF(SUM(C17:C18)=0,0,SUM(C17:C18)/COUNTIF(C17:C18,"&gt;0"))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D19" s="36"/>
-      <c r="E19" s="34" t="str">
+      <c r="E19" s="34">
         <f>IFERROR((C19-$C$25)/($C$24-$C$25)*9+1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="str">
         <f>'Recom.'!A8</f>
-        <v>0</v>
+        <v>Gaming Accessory Store</v>
       </c>
       <c r="D20" s="36"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="35"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="7">
+        <v>8</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="35"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="7">
+        <v>5</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="23">
         <f>IF(SUM(C21:C22)=0,0,SUM(C21:C22)/COUNTIF(C21:C22,"&gt;0"))</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="34" t="str">
+        <v>6.5</v>
+      </c>
+      <c r="E23" s="34">
         <f>IFERROR((C23-$C$25)/($C$24-$C$25)*9+1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+        <v>3.6999999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="23">
         <f>MAX(C7,C11,C15,C19,C23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="23">
         <f>MIN(C7,C11,C15,C19,C23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" s="23"/>
     </row>
-    <row r="27" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>47</v>
       </c>
@@ -5116,7 +5711,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>48</v>
       </c>
@@ -5143,16 +5738,16 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69140625" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>33</v>
       </c>
@@ -5160,12 +5755,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>36</v>
       </c>
@@ -5173,88 +5768,100 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="str">
         <f>'Recom.'!A4</f>
-        <v>0</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="str">
+        <v>Tech Gadget Review Blog</v>
+      </c>
+      <c r="B4" s="15">
+        <v>25</v>
+      </c>
+      <c r="C4" s="16">
         <f>IFERROR(10-((B4-$B$10)/($B$9-$B$10)*9),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="str">
         <f>'Recom.'!A5</f>
-        <v>0</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16" t="str">
+        <v>Desk Accessory Store</v>
+      </c>
+      <c r="B5" s="15">
+        <v>5</v>
+      </c>
+      <c r="C5" s="16">
         <f t="shared" ref="C5:C8" si="0">IFERROR(10-((B5-$B$10)/($B$9-$B$10)*9),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="str">
         <f>'Recom.'!A6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16" t="str">
+        <v>Climbing Blog</v>
+      </c>
+      <c r="B6" s="15">
+        <v>5</v>
+      </c>
+      <c r="C6" s="16">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="str">
         <f>'Recom.'!A7</f>
-        <v>0</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16" t="str">
+        <v>Guitar Blog</v>
+      </c>
+      <c r="B7" s="15">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="str">
         <f>'Recom.'!A8</f>
-        <v>0</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16" t="str">
+        <v>Gaming Accessory Store</v>
+      </c>
+      <c r="B8" s="15">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
       <c r="B9" s="25">
         <f>MAX(B4:B8)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C9" s="24"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="25">
         <f>MIN(B4:B8)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -5265,7 +5872,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -5277,7 +5884,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -5289,12 +5896,12 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>4</v>
       </c>
@@ -5317,16 +5924,16 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.84375" customWidth="1"/>
-    <col min="2" max="2" width="11.07421875" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>138</v>
       </c>
@@ -5334,12 +5941,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>39</v>
       </c>
@@ -5347,87 +5954,99 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="10">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="str">
         <f>'Recom.'!A4</f>
-        <v>0</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16" t="str">
+        <v>Tech Gadget Review Blog</v>
+      </c>
+      <c r="B4" s="13">
+        <v>10</v>
+      </c>
+      <c r="C4" s="16">
         <f>IFERROR(10-((B4-$B$10)/($B$9-$B$10)*9),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="str">
         <f>'Recom.'!A5</f>
-        <v>0</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="16" t="str">
+        <v>Desk Accessory Store</v>
+      </c>
+      <c r="B5" s="13">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16">
         <f t="shared" ref="C5:C8" si="0">IFERROR(10-((B5-$B$10)/($B$9-$B$10)*9),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="str">
         <f>'Recom.'!A6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="16" t="str">
+        <v>Climbing Blog</v>
+      </c>
+      <c r="B6" s="13">
+        <v>10</v>
+      </c>
+      <c r="C6" s="16">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="str">
         <f>'Recom.'!A7</f>
-        <v>0</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="16" t="str">
+        <v>Guitar Blog</v>
+      </c>
+      <c r="B7" s="13">
+        <v>10</v>
+      </c>
+      <c r="C7" s="16">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="str">
         <f>'Recom.'!A8</f>
-        <v>0</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="16" t="str">
+        <v>Gaming Accessory Store</v>
+      </c>
+      <c r="B8" s="13">
+        <v>2</v>
+      </c>
+      <c r="C8" s="16">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>61</v>
       </c>
       <c r="B9" s="26">
         <f>MAX(B4:B8)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="26">
         <f>MIN(B4:B8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>210</v>
+      </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -5436,7 +6055,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -5446,7 +6065,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="17" spans="1:3" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -5454,12 +6073,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>39</v>
       </c>
@@ -5467,7 +6086,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -5478,19 +6097,19 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
     </row>
   </sheetData>
@@ -5504,22 +6123,22 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.3046875" customWidth="1"/>
-    <col min="2" max="2" width="10.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.07421875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.53515625" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.07421875" customWidth="1"/>
-    <col min="7" max="7" width="10.53515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>50</v>
       </c>
@@ -5536,7 +6155,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>52</v>
       </c>
@@ -5553,7 +6172,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>53</v>
       </c>
@@ -5573,138 +6192,148 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="10">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="str">
         <f>'Recom.'!A4</f>
-        <v>0</v>
-      </c>
-      <c r="B4" s="15"/>
+        <v>Tech Gadget Review Blog</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1.54</v>
+      </c>
       <c r="C4" s="18">
         <f>Demand!D4</f>
-        <v>12</v>
+        <v>5.9</v>
       </c>
       <c r="D4" s="51">
         <f>INPUTS!F18</f>
-        <v>2.0833333333333335</v>
+        <v>2.1999999999999997</v>
       </c>
       <c r="E4" s="19">
         <v>0.02</v>
       </c>
       <c r="F4" s="28">
         <f>(B4*C4*E4)-(C4*D4)</f>
-        <v>-25</v>
+        <v>-12.798279999999998</v>
       </c>
       <c r="G4" s="16">
         <f>IFERROR((((F4-$F$10)/$F$11)*9)+1,"")</f>
-        <v>1</v>
+        <v>6.5868475487735214</v>
       </c>
       <c r="I4" s="22"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="10">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="str">
         <f>'Recom.'!A5</f>
-        <v>0</v>
-      </c>
-      <c r="B5" s="15"/>
+        <v>Desk Accessory Store</v>
+      </c>
+      <c r="B5" s="15">
+        <v>8</v>
+      </c>
       <c r="C5" s="18">
         <f>Demand!D5</f>
-        <v>0</v>
+        <v>29.761904761904759</v>
       </c>
       <c r="D5" s="51">
         <f>INPUTS!F23</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E5" s="19">
         <v>0.02</v>
       </c>
       <c r="F5" s="28">
         <f>(B5*C5*E5)-(C5*D5)</f>
-        <v>0</v>
+        <v>-13.095238095238091</v>
       </c>
       <c r="G5" s="16">
         <f>IFERROR((((F5-$F$10)/$F$11)*9)+1,"")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="10">
+        <v>6.2418671656631988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="str">
         <f>'Recom.'!A6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="15"/>
+        <v>Climbing Blog</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1.79</v>
+      </c>
       <c r="C6" s="18">
         <f>Demand!D6</f>
-        <v>0</v>
+        <v>6.9754464285714288</v>
       </c>
       <c r="D6" s="51">
         <f>INPUTS!F28</f>
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="E6" s="19">
         <v>0.02</v>
       </c>
       <c r="F6" s="28">
         <f>(B6*C6*E6)-(C6*D6)</f>
-        <v>0</v>
+        <v>-17.607421875</v>
       </c>
       <c r="G6" s="16">
         <f t="shared" ref="G6:G8" si="0">IFERROR((((F6-$F$10)/$F$11)*9)+1,"")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="str">
         <f>'Recom.'!A7</f>
-        <v>0</v>
-      </c>
-      <c r="B7" s="15"/>
+        <v>Guitar Blog</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1.81</v>
+      </c>
       <c r="C7" s="18">
         <f>Demand!D7</f>
-        <v>0</v>
+        <v>6.9124423963133648</v>
       </c>
       <c r="D7" s="51">
         <f>INPUTS!F33</f>
-        <v>0</v>
+        <v>2.5833333333333335</v>
       </c>
       <c r="E7" s="19">
         <v>0.02</v>
       </c>
       <c r="F7" s="28">
         <f>(B7*C7*E7)-(C7*D7)</f>
-        <v>0</v>
+        <v>-17.606912442396318</v>
       </c>
       <c r="G7" s="16">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="10">
+        <v>1.000591814998834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="str">
         <f>'Recom.'!A8</f>
-        <v>0</v>
-      </c>
-      <c r="B8" s="15"/>
+        <v>Gaming Accessory Store</v>
+      </c>
+      <c r="B8" s="15">
+        <v>20</v>
+      </c>
       <c r="C8" s="18">
         <f>Demand!D8</f>
-        <v>0</v>
+        <v>19.992236024844722</v>
       </c>
       <c r="D8" s="51">
         <f>INPUTS!F38</f>
-        <v>0</v>
+        <v>0.89320388349514568</v>
       </c>
       <c r="E8" s="19">
         <v>0.02</v>
       </c>
       <c r="F8" s="28">
         <f>(B8*C8*E8)-(C8*D8)</f>
-        <v>0</v>
+        <v>-9.8602484472049703</v>
       </c>
       <c r="G8" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -5713,20 +6342,20 @@
       </c>
       <c r="F9" s="28">
         <f>MAX(F4:F8)</f>
-        <v>0</v>
+        <v>-9.8602484472049703</v>
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>64</v>
       </c>
       <c r="F10" s="29">
         <f>MIN(F4:F8)</f>
-        <v>-25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+        <v>-17.607421875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="17"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -5735,15 +6364,15 @@
       </c>
       <c r="F11" s="29">
         <f>F9-F10</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+        <v>7.7471734277950297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -5757,7 +6386,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -5771,7 +6400,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -5785,7 +6414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>52</v>
       </c>
@@ -5802,7 +6431,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>53</v>
       </c>
@@ -5822,7 +6451,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>45</v>
       </c>
@@ -5861,22 +6490,22 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A16" sqref="A16:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.84375" customWidth="1"/>
-    <col min="3" max="3" width="12.07421875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4609375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.4609375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.84375" customWidth="1"/>
-    <col min="8" max="8" width="7.69140625" customWidth="1"/>
-    <col min="9" max="9" width="6.3046875" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>69</v>
       </c>
@@ -5884,7 +6513,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5913,7 +6542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -5924,13 +6553,13 @@
         <v>0.2</v>
       </c>
       <c r="D3" s="20">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="E3" s="20">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F3" s="20">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="G3" s="20">
         <v>0.15</v>
@@ -5942,190 +6571,190 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="str">
         <f>Brainstorm!B26</f>
-        <v>0</v>
+        <v>Tech Gadget Review Blog</v>
       </c>
       <c r="B4" s="32">
         <f>Demand!E4</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C4" s="32">
         <f>Comp!C4</f>
         <v>10</v>
       </c>
-      <c r="D4" s="32" t="str">
+      <c r="D4" s="32">
         <f>Supplier!E7</f>
-        <v/>
-      </c>
-      <c r="E4" s="32" t="str">
+        <v>6.3999999999999995</v>
+      </c>
+      <c r="E4" s="32">
         <f>'Start-up$'!C4</f>
-        <v/>
-      </c>
-      <c r="F4" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="F4" s="32">
         <f>Time!C4</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G4" s="32">
         <f>Profit!G4</f>
-        <v>1</v>
+        <v>6.5868475487735214</v>
       </c>
       <c r="H4" s="31"/>
       <c r="I4" s="31"/>
-      <c r="J4" s="30" t="str">
+      <c r="J4" s="30">
         <f>IFERROR((B4*$B$3)+(C4*$C$3)+(D4*$D$3)+(E4*$E$3)+(F4*$F$3)+(G4*$G$3),"")</f>
-        <v/>
-      </c>
-      <c r="K4" s="17" t="str">
+        <v>3.9080271323160285</v>
+      </c>
+      <c r="K4" s="17">
         <f>IFERROR(RANK(J4,$J$4:$J$8),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="str">
         <f>Brainstorm!B27</f>
-        <v>0</v>
+        <v>Desk Accessory Store</v>
       </c>
       <c r="B5" s="32">
         <f>Demand!E5</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C5" s="32">
         <f>Comp!C5</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="32" t="str">
+        <v>9.2861651015157261</v>
+      </c>
+      <c r="D5" s="32">
         <f>Supplier!E11</f>
-        <v/>
-      </c>
-      <c r="E5" s="32" t="str">
+        <v>3.6999999999999997</v>
+      </c>
+      <c r="E5" s="32">
         <f>'Start-up$'!C5</f>
-        <v/>
-      </c>
-      <c r="F5" s="32" t="str">
+        <v>10</v>
+      </c>
+      <c r="F5" s="32">
         <f>Time!C5</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="G5" s="32">
         <f>Profit!G5</f>
-        <v>10</v>
+        <v>6.2418671656631988</v>
       </c>
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
-      <c r="J5" s="30" t="str">
+      <c r="J5" s="30">
         <f t="shared" ref="J5:J8" si="0">IFERROR((B5*$B$3)+(C5*$C$3)+(D5*$D$3)+(E5*$E$3)+(F5*$F$3)+(G5*$G$3),"")</f>
-        <v/>
-      </c>
-      <c r="K5" s="17" t="str">
+        <v>8.9785130951526249</v>
+      </c>
+      <c r="K5" s="17">
         <f t="shared" ref="K5:K8" si="1">IFERROR(RANK(J5,$J$4:$J$8),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="str">
         <f>Brainstorm!B28</f>
-        <v>0</v>
+        <v>Climbing Blog</v>
       </c>
       <c r="B6" s="32">
         <f>Demand!E6</f>
-        <v>1</v>
+        <v>1.4056263719816404</v>
       </c>
       <c r="C6" s="32">
         <f>Comp!C6</f>
+        <v>1.3502647154993197</v>
+      </c>
+      <c r="D6" s="32">
+        <f>Supplier!E15</f>
+        <v>10</v>
+      </c>
+      <c r="E6" s="32">
+        <f>'Start-up$'!C6</f>
+        <v>10</v>
+      </c>
+      <c r="F6" s="32">
+        <f>Time!C6</f>
         <v>1</v>
-      </c>
-      <c r="D6" s="32" t="str">
-        <f>Supplier!E15</f>
-        <v/>
-      </c>
-      <c r="E6" s="32" t="str">
-        <f>'Start-up$'!C6</f>
-        <v/>
-      </c>
-      <c r="F6" s="32" t="str">
-        <f>Time!C6</f>
-        <v/>
       </c>
       <c r="G6" s="32">
         <f>Profit!G6</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
-      <c r="J6" s="30" t="str">
+      <c r="J6" s="30">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K6" s="17" t="str">
+        <v>3.401178217496192</v>
+      </c>
+      <c r="K6" s="17">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="str">
         <f>Brainstorm!B29</f>
-        <v>0</v>
+        <v>Guitar Blog</v>
       </c>
       <c r="B7" s="32">
         <f>Demand!E7</f>
-        <v>1</v>
+        <v>1.3818631269272119</v>
       </c>
       <c r="C7" s="32">
         <f>Comp!C7</f>
         <v>1</v>
       </c>
-      <c r="D7" s="32" t="str">
+      <c r="D7" s="32">
         <f>Supplier!E19</f>
-        <v/>
-      </c>
-      <c r="E7" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="E7" s="32">
         <f>'Start-up$'!C7</f>
-        <v/>
-      </c>
-      <c r="F7" s="32" t="str">
+        <v>10</v>
+      </c>
+      <c r="F7" s="32">
         <f>Time!C7</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G7" s="32">
         <f>Profit!G7</f>
-        <v>10</v>
+        <v>1.000591814998834</v>
       </c>
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
-      <c r="J7" s="30" t="str">
+      <c r="J7" s="30">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K7" s="17" t="str">
+        <v>2.8764613976352678</v>
+      </c>
+      <c r="K7" s="17">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="str">
         <f>Brainstorm!B30</f>
-        <v>0</v>
+        <v>Gaming Accessory Store</v>
       </c>
       <c r="B8" s="32">
         <f>Demand!E8</f>
-        <v>1</v>
+        <v>6.315171839344746</v>
       </c>
       <c r="C8" s="32">
         <f>Comp!C8</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="32" t="str">
+        <v>6.7221208670202381</v>
+      </c>
+      <c r="D8" s="32">
         <f>Supplier!E23</f>
-        <v/>
-      </c>
-      <c r="E8" s="32" t="str">
+        <v>3.6999999999999997</v>
+      </c>
+      <c r="E8" s="32">
         <f>'Start-up$'!C8</f>
-        <v/>
-      </c>
-      <c r="F8" s="32" t="str">
+        <v>10</v>
+      </c>
+      <c r="F8" s="32">
         <f>Time!C8</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="G8" s="32">
         <f>Profit!G8</f>
@@ -6133,22 +6762,24 @@
       </c>
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
-      <c r="J8" s="30" t="str">
+      <c r="J8" s="30">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K8" s="17" t="str">
+        <v>8.2924585412729961</v>
+      </c>
+      <c r="K8" s="17">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="76"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="76" t="s">
+        <v>211</v>
+      </c>
       <c r="B11" s="76"/>
       <c r="C11" s="76"/>
       <c r="D11" s="76"/>
@@ -6159,7 +6790,7 @@
       <c r="I11" s="76"/>
       <c r="J11" s="76"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="76"/>
       <c r="B12" s="76"/>
       <c r="C12" s="76"/>
@@ -6171,7 +6802,7 @@
       <c r="I12" s="76"/>
       <c r="J12" s="76"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="76"/>
       <c r="B13" s="76"/>
       <c r="C13" s="76"/>
@@ -6183,7 +6814,7 @@
       <c r="I13" s="76"/>
       <c r="J13" s="76"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="76"/>
       <c r="B14" s="76"/>
       <c r="C14" s="76"/>
@@ -6195,13 +6826,15 @@
       <c r="I14" s="76"/>
       <c r="J14" s="76"/>
     </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="76"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="76" t="s">
+        <v>212</v>
+      </c>
       <c r="B16" s="76"/>
       <c r="C16" s="76"/>
       <c r="D16" s="76"/>
@@ -6212,7 +6845,7 @@
       <c r="I16" s="76"/>
       <c r="J16" s="76"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="76"/>
       <c r="B17" s="76"/>
       <c r="C17" s="76"/>
@@ -6224,7 +6857,7 @@
       <c r="I17" s="76"/>
       <c r="J17" s="76"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="76"/>
       <c r="B18" s="76"/>
       <c r="C18" s="76"/>
